--- a/src/main/resources/Data/Excel worksheets/factors.xlsx
+++ b/src/main/resources/Data/Excel worksheets/factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\darshan\SparkProject\src\main\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\darshan\SparkProject\src\main\resources\Data\Excel worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="106">
   <si>
     <t>customer_id</t>
   </si>
@@ -850,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74:E74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="L6:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,7 +866,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -895,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -924,7 +924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -982,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1035,14 +1035,8 @@
       <c r="I6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1070,14 +1064,8 @@
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1105,14 +1093,8 @@
       <c r="I8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1140,14 +1122,8 @@
       <c r="I9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1176,7 +1152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
@@ -1205,7 +1181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1234,7 +1210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1263,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1292,7 +1268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>

--- a/src/main/resources/Data/Excel worksheets/factors.xlsx
+++ b/src/main/resources/Data/Excel worksheets/factors.xlsx
@@ -146,18 +146,12 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
     <t>2021-01-02 00:00:00.1</t>
   </si>
   <si>
-    <t>2021-01-03 00:00:00.1</t>
-  </si>
-  <si>
     <t>Day 3</t>
   </si>
   <si>
@@ -342,6 +336,12 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>2021-01-04 00:00:00.1</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="L6:M9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,10 +906,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>9</v>
@@ -935,10 +935,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>9</v>
@@ -964,10 +964,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
@@ -1018,10 +1018,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>9</v>
@@ -1047,10 +1047,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>9</v>
@@ -1076,10 +1076,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>9</v>
@@ -1105,10 +1105,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>9</v>
@@ -1134,10 +1134,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>9</v>
@@ -1163,10 +1163,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>9</v>
@@ -1192,10 +1192,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>9</v>
@@ -1221,10 +1221,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>9</v>
@@ -1250,10 +1250,10 @@
         <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>9</v>
@@ -1279,10 +1279,10 @@
         <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>9</v>
@@ -1308,10 +1308,10 @@
         <v>26</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>9</v>
@@ -1337,10 +1337,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>30</v>
@@ -1366,10 +1366,10 @@
         <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>30</v>
@@ -1395,10 +1395,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>30</v>
@@ -1424,10 +1424,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>30</v>
@@ -1453,10 +1453,10 @@
         <v>26</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>30</v>
@@ -1482,10 +1482,10 @@
         <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>30</v>
@@ -1511,10 +1511,10 @@
         <v>23</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>30</v>
@@ -1540,10 +1540,10 @@
         <v>24</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>30</v>
@@ -1569,10 +1569,10 @@
         <v>25</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>30</v>
@@ -1598,10 +1598,10 @@
         <v>26</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>30</v>
@@ -1640,13 +1640,13 @@
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>10</v>
@@ -1669,13 +1669,13 @@
         <v>23</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>10</v>
@@ -1698,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>10</v>
@@ -1729,7 +1729,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>10</v>
@@ -1752,13 +1752,13 @@
         <v>26</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>10</v>
@@ -1781,13 +1781,13 @@
         <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>10</v>
@@ -1810,13 +1810,13 @@
         <v>23</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>10</v>
@@ -1839,13 +1839,13 @@
         <v>24</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>10</v>
@@ -1868,13 +1868,13 @@
         <v>25</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>10</v>
@@ -1897,11 +1897,11 @@
         <v>26</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>10</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1950,13 +1950,13 @@
         <v>22</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>10</v>
@@ -1965,7 +1965,7 @@
         <v>11</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1979,13 +1979,13 @@
         <v>23</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>10</v>
@@ -1994,7 +1994,7 @@
         <v>11</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2008,13 +2008,13 @@
         <v>24</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>10</v>
@@ -2023,7 +2023,7 @@
         <v>11</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2037,13 +2037,13 @@
         <v>25</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>10</v>
@@ -2052,7 +2052,7 @@
         <v>11</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2066,13 +2066,13 @@
         <v>26</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>10</v>
@@ -2081,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2095,22 +2095,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2124,13 +2124,13 @@
         <v>23</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>10</v>
@@ -2139,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2153,13 +2153,13 @@
         <v>24</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>10</v>
@@ -2168,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2182,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>10</v>
@@ -2197,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2211,13 +2211,13 @@
         <v>26</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>10</v>
@@ -2226,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2234,28 +2234,28 @@
         <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>40</v>
+        <v>95</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2263,19 +2263,19 @@
         <v>28</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>10</v>
@@ -2284,7 +2284,7 @@
         <v>11</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2292,19 +2292,19 @@
         <v>28</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>10</v>
@@ -2313,7 +2313,7 @@
         <v>11</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2321,28 +2321,28 @@
         <v>28</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="G53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2350,17 +2350,17 @@
         <v>28</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="9" t="s">
-        <v>43</v>
+      <c r="F54" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>10</v>
@@ -2368,13 +2368,13 @@
       <c r="H54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="10" t="s">
-        <v>40</v>
+      <c r="I54" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -2390,19 +2390,19 @@
         <v>12</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>10</v>
@@ -2411,7 +2411,7 @@
         <v>11</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2419,19 +2419,19 @@
         <v>12</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>10</v>
@@ -2440,7 +2440,7 @@
         <v>11</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2448,19 +2448,19 @@
         <v>12</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>10</v>
@@ -2469,7 +2469,7 @@
         <v>11</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2477,7 +2477,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>25</v>
@@ -2485,7 +2485,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>10</v>
@@ -2494,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2502,19 +2502,19 @@
         <v>12</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>10</v>
@@ -2523,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2531,19 +2531,19 @@
         <v>13</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>10</v>
@@ -2552,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2560,19 +2560,19 @@
         <v>13</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>10</v>
@@ -2581,7 +2581,7 @@
         <v>11</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2589,19 +2589,19 @@
         <v>13</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>10</v>
@@ -2610,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2618,19 +2618,19 @@
         <v>13</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>10</v>
@@ -2639,7 +2639,7 @@
         <v>11</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2647,19 +2647,19 @@
         <v>13</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>10</v>
@@ -2668,7 +2668,7 @@
         <v>11</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2676,19 +2676,19 @@
         <v>14</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>10</v>
@@ -2697,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2705,19 +2705,19 @@
         <v>14</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>10</v>
@@ -2726,7 +2726,7 @@
         <v>11</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2734,19 +2734,19 @@
         <v>14</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>10</v>
@@ -2755,7 +2755,7 @@
         <v>11</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2763,19 +2763,19 @@
         <v>14</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>10</v>
@@ -2784,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2792,19 +2792,19 @@
         <v>14</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>10</v>
@@ -2813,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -2821,19 +2821,19 @@
         <v>15</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>10</v>
@@ -2842,7 +2842,7 @@
         <v>11</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -2850,19 +2850,19 @@
         <v>15</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>10</v>
@@ -2871,7 +2871,7 @@
         <v>11</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2879,19 +2879,19 @@
         <v>15</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>10</v>
@@ -2900,7 +2900,7 @@
         <v>11</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -2908,19 +2908,19 @@
         <v>15</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>10</v>
@@ -2929,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2937,19 +2937,19 @@
         <v>15</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>10</v>
@@ -2958,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -2966,19 +2966,19 @@
         <v>16</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>10</v>
@@ -2987,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -2995,19 +2995,19 @@
         <v>16</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         <v>11</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -3024,19 +3024,19 @@
         <v>16</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>10</v>
@@ -3045,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -3053,19 +3053,19 @@
         <v>16</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>10</v>
@@ -3074,7 +3074,7 @@
         <v>11</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3082,19 +3082,19 @@
         <v>16</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>10</v>
@@ -3103,7 +3103,7 @@
         <v>11</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -3111,19 +3111,19 @@
         <v>27</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>10</v>
@@ -3132,7 +3132,7 @@
         <v>11</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -3140,19 +3140,19 @@
         <v>27</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>10</v>
@@ -3161,7 +3161,7 @@
         <v>11</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -3169,19 +3169,19 @@
         <v>27</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>10</v>
@@ -3190,7 +3190,7 @@
         <v>11</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -3198,19 +3198,19 @@
         <v>27</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>10</v>
@@ -3219,7 +3219,7 @@
         <v>11</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3227,17 +3227,17 @@
         <v>27</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>10</v>
@@ -3246,7 +3246,7 @@
         <v>11</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -3254,19 +3254,19 @@
         <v>28</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>10</v>
@@ -3275,7 +3275,7 @@
         <v>11</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -3283,19 +3283,19 @@
         <v>28</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>10</v>
@@ -3304,7 +3304,7 @@
         <v>11</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -3312,19 +3312,19 @@
         <v>28</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>10</v>
@@ -3333,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -3341,19 +3341,19 @@
         <v>28</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>10</v>
@@ -3362,7 +3362,7 @@
         <v>11</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3370,17 +3370,17 @@
         <v>28</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>10</v>
@@ -3389,7 +3389,7 @@
         <v>11</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -3397,19 +3397,19 @@
         <v>29</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
@@ -3418,7 +3418,7 @@
         <v>11</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -3426,19 +3426,19 @@
         <v>29</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         <v>11</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -3455,19 +3455,19 @@
         <v>29</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>10</v>
@@ -3476,7 +3476,7 @@
         <v>11</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -3484,19 +3484,19 @@
         <v>29</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>10</v>
@@ -3505,7 +3505,7 @@
         <v>11</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3513,19 +3513,19 @@
         <v>29</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>10</v>
@@ -3534,7 +3534,7 @@
         <v>11</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -3542,19 +3542,19 @@
         <v>31</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>10</v>
@@ -3563,7 +3563,7 @@
         <v>11</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -3571,19 +3571,19 @@
         <v>31</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>10</v>
@@ -3592,7 +3592,7 @@
         <v>11</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -3600,19 +3600,19 @@
         <v>31</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>10</v>
@@ -3621,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -3629,19 +3629,19 @@
         <v>31</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>10</v>
@@ -3650,7 +3650,7 @@
         <v>11</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3658,19 +3658,19 @@
         <v>31</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>10</v>
@@ -3679,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3687,19 +3687,19 @@
         <v>35</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>10</v>
@@ -3708,7 +3708,7 @@
         <v>11</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -3716,19 +3716,19 @@
         <v>35</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>10</v>
@@ -3737,7 +3737,7 @@
         <v>11</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -3745,19 +3745,19 @@
         <v>35</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>10</v>
@@ -3766,7 +3766,7 @@
         <v>11</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -3774,19 +3774,19 @@
         <v>35</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>10</v>
@@ -3795,7 +3795,7 @@
         <v>11</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3803,19 +3803,19 @@
         <v>35</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>10</v>
@@ -3824,7 +3824,7 @@
         <v>11</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
